--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3468.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3468.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17215253587677</v>
+        <v>0.9220307469367981</v>
       </c>
       <c r="B1">
-        <v>1.49522709107623</v>
+        <v>1.432577133178711</v>
       </c>
       <c r="C1">
-        <v>2.197524447124562</v>
+        <v>4.889541625976562</v>
       </c>
       <c r="D1">
-        <v>7.323165904037828</v>
+        <v>2.871509552001953</v>
       </c>
       <c r="E1">
-        <v>3.978759825215424</v>
+        <v>0.4070788621902466</v>
       </c>
     </row>
   </sheetData>
